--- a/PyLUCCBA/resources/meta/Data_CarbonStocks_Emissions.xlsx
+++ b/PyLUCCBA/resources/meta/Data_CarbonStocks_Emissions.xlsx
@@ -1,458 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marion\OneDrive\Thèse\WP\WP_CBA\Submission\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11688" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="DLUC calc --&gt;" sheetId="1" r:id="rId1"/>
-    <sheet name="CS_Data" sheetId="3" r:id="rId2"/>
-    <sheet name="CS_France" sheetId="6" r:id="rId3"/>
-    <sheet name="Emissions calc --&gt;" sheetId="2" r:id="rId4"/>
-    <sheet name="Wheat Eth" sheetId="4" r:id="rId5"/>
-    <sheet name="Miscanthus Eth" sheetId="5" r:id="rId6"/>
+    <sheet name="CS_Data" sheetId="3" r:id="rId1"/>
+    <sheet name="CS_France" sheetId="6" r:id="rId2"/>
+    <sheet name="Wheat Eth" sheetId="4" r:id="rId3"/>
+    <sheet name="Miscanthus Eth" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Marion</author>
-  </authors>
-  <commentList>
-    <comment ref="A37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tab 5.5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>standard soil organic carbon in the 0-30 centimetre topsoil layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-by default, 20 (volcanic soil)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-by default, 20 (volcanic soil)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A54" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Marion:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tab 2.3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B56" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-standard soil organic carbon in the 0-30 centimetre topsoil layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-by default, 20 (volcanic soil)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C60" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-by default, 20 (volcanic soil)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B73" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-standard soil organic carbon in the 0-30 centimetre topsoil layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C76" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-by default, 20 (volcanic soil)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C77" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>by default, 20 (volcanic soil)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Marion:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tab 2.2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B92" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>feuillus</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C92" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>résineux</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A125" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tab 4.3 &amp; 4.12</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Marion Dupoux</author>
-    <author>Marion</author>
-  </authors>
-  <commentList>
-    <comment ref="B14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>t DM/ha</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>t eth/ t DM</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>t eth/ha</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>t C/ha</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>standard soil organic carbon in the 0-30 centimetre topsoil layer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G26" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>For the production of biofuel, these has to be considered as zeros because the biomass is harvested every year for production.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G27" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>For the production of biofuel, these has to be considered as zeros because the biomass is harvested every year for production.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Marion Dupoux</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>grammes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>grammes</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Marion Dupoux</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>grammes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>grammes</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="185">
   <si>
     <t>Tropica - Moist and Wet</t>
   </si>
@@ -1200,21 +771,15 @@
   <si>
     <t>Forest plantations broadleaf &gt;20 yrs</t>
   </si>
-  <si>
-    <t>CS for carbon stocks</t>
-  </si>
-  <si>
-    <t>Emissions from the production of bioethanol</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,28 +849,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1398,6 +943,38 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1807,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1929,82 +1506,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2095,19 +1607,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2244,8 +1756,7 @@
     <xf numFmtId="164" fontId="1" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2258,47 +1769,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2312,106 +1847,200 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2543,7 +2172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2595,7 +2224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2789,159 +2418,134 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="28.8">
       <c r="A1" s="52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="1">
         <f>0.5*CS_Data!B46+0.5*CS_Data!D46</f>
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="D15" s="1">
         <f>0.5*CS_Data!F80+0.5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
       <c r="D17" s="1">
         <f>0.5*(0.66*CS_Data!J46+0.17)+0.5*((1/3)*CS_Data!I47+(2/3)*CS_Data!H47)</f>
         <v>0.96133333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" s="40" customFormat="1" ht="26.4" thickBot="1">
       <c r="A18" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="21.6" thickBot="1">
       <c r="A37" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="50"/>
-      <c r="B38" s="184" t="s">
+      <c r="B38" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="184" t="s">
+      <c r="C38" s="170"/>
+      <c r="D38" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="184" t="s">
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="186"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="184" t="s">
+      <c r="I38" s="167"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L38" s="186"/>
-      <c r="M38" s="186"/>
-      <c r="N38" s="185"/>
-    </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="170"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.6">
       <c r="A39" s="46"/>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="188"/>
-      <c r="D39" s="187" t="s">
+      <c r="C39" s="176"/>
+      <c r="D39" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="187" t="s">
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="189"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="187" t="s">
+      <c r="I39" s="169"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="L39" s="189"/>
-      <c r="M39" s="189"/>
-      <c r="N39" s="188"/>
-    </row>
-    <row r="40" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="176"/>
+    </row>
+    <row r="40" spans="1:14" s="44" customFormat="1">
       <c r="A40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="190" t="s">
+      <c r="B40" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="192"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
-      <c r="N40" s="192"/>
-    </row>
-    <row r="41" spans="1:14" s="51" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="178"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="181"/>
+      <c r="M40" s="181"/>
+      <c r="N40" s="178"/>
+    </row>
+    <row r="41" spans="1:14" s="51" customFormat="1" ht="29.4" thickBot="1">
       <c r="A41" s="47"/>
       <c r="B41" s="43" t="s">
         <v>89</v>
@@ -2983,7 +2587,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="9" t="s">
         <v>74</v>
       </c>
@@ -3027,7 +2631,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="7" t="s">
         <v>73</v>
       </c>
@@ -3071,7 +2675,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
         <v>72</v>
       </c>
@@ -3115,7 +2719,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
@@ -3159,7 +2763,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
         <v>70</v>
       </c>
@@ -3203,7 +2807,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="7" t="s">
         <v>69</v>
       </c>
@@ -3247,7 +2851,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
         <v>68</v>
       </c>
@@ -3291,7 +2895,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
         <v>67</v>
       </c>
@@ -3335,7 +2939,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
         <v>66</v>
       </c>
@@ -3379,7 +2983,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>65</v>
       </c>
@@ -3423,44 +3027,44 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="21.6" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="50"/>
-      <c r="B55" s="184" t="s">
+      <c r="B55" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="185"/>
+      <c r="C55" s="170"/>
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
       <c r="N55" s="49"/>
     </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15.6">
       <c r="A56" s="46"/>
-      <c r="B56" s="187" t="s">
+      <c r="B56" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="188"/>
+      <c r="C56" s="176"/>
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
       <c r="N56" s="49"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="190" t="s">
+      <c r="B57" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="192"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="178"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" thickBot="1">
       <c r="A58" s="47"/>
       <c r="B58" s="43" t="s">
         <v>89</v>
@@ -3469,7 +3073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="9" t="s">
         <v>74</v>
       </c>
@@ -3480,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -3491,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="7" t="s">
         <v>72</v>
       </c>
@@ -3502,7 +3106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -3513,7 +3117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="7" t="s">
         <v>70</v>
       </c>
@@ -3524,7 +3128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
         <v>69</v>
       </c>
@@ -3535,7 +3139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="7" t="s">
         <v>68</v>
       </c>
@@ -3546,7 +3150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="7" t="s">
         <v>67</v>
       </c>
@@ -3557,7 +3161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="7" t="s">
         <v>66</v>
       </c>
@@ -3568,7 +3172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
@@ -3579,68 +3183,68 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" ht="21.6" thickBot="1">
       <c r="A71" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="196"/>
-      <c r="B72" s="184" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" s="179"/>
+      <c r="B72" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="185"/>
+      <c r="C72" s="170"/>
       <c r="D72" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="184" t="s">
+      <c r="E72" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="186"/>
-      <c r="G72" s="186"/>
-      <c r="H72" s="185"/>
-      <c r="I72" s="184" t="s">
+      <c r="F72" s="167"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="J72" s="185"/>
-    </row>
-    <row r="73" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="197"/>
-      <c r="B73" s="187" t="s">
+      <c r="J72" s="170"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="180"/>
+      <c r="B73" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="188"/>
+      <c r="C73" s="176"/>
       <c r="D73" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="187" t="s">
+      <c r="E73" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="F73" s="189"/>
-      <c r="G73" s="189"/>
-      <c r="H73" s="188"/>
-      <c r="I73" s="187" t="s">
+      <c r="F73" s="169"/>
+      <c r="G73" s="169"/>
+      <c r="H73" s="176"/>
+      <c r="I73" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="J73" s="188"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="176"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="190" t="s">
+      <c r="B74" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="192"/>
+      <c r="C74" s="178"/>
       <c r="D74" s="46"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="189"/>
-      <c r="G74" s="189"/>
-      <c r="H74" s="188"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="188"/>
-    </row>
-    <row r="75" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="168"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="169"/>
+      <c r="H74" s="176"/>
+      <c r="I74" s="168"/>
+      <c r="J74" s="176"/>
+    </row>
+    <row r="75" spans="1:10" ht="29.4" thickBot="1">
       <c r="A75" s="47"/>
       <c r="B75" s="43" t="s">
         <v>89</v>
@@ -3668,7 +3272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="9" t="s">
         <v>74</v>
       </c>
@@ -3700,7 +3304,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="7" t="s">
         <v>73</v>
       </c>
@@ -3732,7 +3336,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="7" t="s">
         <v>72</v>
       </c>
@@ -3764,7 +3368,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="7" t="s">
         <v>71</v>
       </c>
@@ -3796,7 +3400,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="7" t="s">
         <v>70</v>
       </c>
@@ -3828,7 +3432,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="7" t="s">
         <v>69</v>
       </c>
@@ -3860,7 +3464,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="7" t="s">
         <v>68</v>
       </c>
@@ -3892,7 +3496,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="7" t="s">
         <v>67</v>
       </c>
@@ -3924,7 +3528,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="7" t="s">
         <v>66</v>
       </c>
@@ -3956,7 +3560,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>65</v>
       </c>
@@ -3988,39 +3592,39 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="21">
       <c r="A88" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="184" t="s">
+    <row r="89" spans="1:10" ht="15" thickBot="1"/>
+    <row r="90" spans="1:10">
+      <c r="B90" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="185"/>
-      <c r="D90" s="184" t="s">
+      <c r="C90" s="170"/>
+      <c r="D90" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="E90" s="185"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E90" s="170"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="190" t="s">
+      <c r="B91" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="192"/>
-      <c r="D91" s="190" t="s">
+      <c r="C91" s="178"/>
+      <c r="D91" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="E91" s="192"/>
-    </row>
-    <row r="92" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="178"/>
+    </row>
+    <row r="92" spans="1:10" ht="29.4" thickBot="1">
       <c r="B92" s="43" t="s">
         <v>76</v>
       </c>
@@ -4034,7 +3638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="9" t="s">
         <v>74</v>
       </c>
@@ -4051,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="7" t="s">
         <v>73</v>
       </c>
@@ -4068,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="7" t="s">
         <v>72</v>
       </c>
@@ -4085,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="7" t="s">
         <v>71</v>
       </c>
@@ -4102,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="7" t="s">
         <v>70</v>
       </c>
@@ -4119,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="7" t="s">
         <v>69</v>
       </c>
@@ -4136,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="7" t="s">
         <v>68</v>
       </c>
@@ -4153,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="7" t="s">
         <v>67</v>
       </c>
@@ -4170,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="7" t="s">
         <v>66</v>
       </c>
@@ -4187,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>65</v>
       </c>
@@ -4204,26 +3808,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:6" s="40" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="15" thickBot="1"/>
+    <row r="106" spans="1:6" s="40" customFormat="1" ht="26.4" thickBot="1">
       <c r="A106" s="41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="21">
       <c r="A108" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" ht="21.6" thickBot="1">
       <c r="A109" s="11"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="198" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="164" t="s">
         <v>62</v>
       </c>
       <c r="B110" s="38" t="s">
@@ -4238,8 +3842,8 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="199"/>
+    <row r="111" spans="1:6">
+      <c r="A111" s="165"/>
       <c r="B111" s="37" t="s">
         <v>53</v>
       </c>
@@ -4252,7 +3856,7 @@
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="35" t="s">
         <v>39</v>
       </c>
@@ -4268,7 +3872,7 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="35" t="s">
         <v>59</v>
       </c>
@@ -4284,7 +3888,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" thickBot="1">
       <c r="A114" s="35" t="s">
         <v>58</v>
       </c>
@@ -4300,7 +3904,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" thickBot="1">
       <c r="A115" s="32" t="s">
         <v>56</v>
       </c>
@@ -4309,13 +3913,13 @@
       </c>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="18"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="198" t="s">
+    <row r="117" spans="1:8">
+      <c r="A117" s="164" t="s">
         <v>55</v>
       </c>
       <c r="B117" s="28"/>
@@ -4324,8 +3928,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="199"/>
+    <row r="118" spans="1:8">
+      <c r="A118" s="165"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="37" t="s">
@@ -4333,7 +3937,7 @@
       </c>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8">
       <c r="A119" s="36" t="s">
         <v>52</v>
       </c>
@@ -4348,7 +3952,7 @@
       </c>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="35"/>
       <c r="B120" s="34"/>
       <c r="C120" s="2" t="s">
@@ -4359,7 +3963,7 @@
       </c>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15" thickBot="1">
       <c r="A121" s="32"/>
       <c r="B121" s="31" t="s">
         <v>50</v>
@@ -4372,38 +3976,38 @@
       </c>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="125" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="21">
       <c r="A125" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" ht="21.6" thickBot="1">
       <c r="A126" s="11"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="184"/>
-      <c r="B127" s="186"/>
-      <c r="C127" s="184" t="s">
+    <row r="127" spans="1:8">
+      <c r="A127" s="166"/>
+      <c r="B127" s="167"/>
+      <c r="C127" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="D127" s="186"/>
-      <c r="E127" s="185"/>
-      <c r="F127" s="186" t="s">
+      <c r="D127" s="167"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="G127" s="186"/>
-      <c r="H127" s="185"/>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="187"/>
-      <c r="B128" s="189"/>
+      <c r="G127" s="167"/>
+      <c r="H127" s="170"/>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1">
+      <c r="A128" s="168"/>
+      <c r="B128" s="169"/>
       <c r="C128" s="19" t="s">
         <v>44</v>
       </c>
@@ -4423,8 +4027,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="193" t="s">
+    <row r="129" spans="1:12">
+      <c r="A129" s="175" t="s">
         <v>48</v>
       </c>
       <c r="B129" s="28" t="s">
@@ -4449,8 +4053,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="194"/>
+    <row r="130" spans="1:12">
+      <c r="A130" s="171"/>
       <c r="B130" s="2" t="s">
         <v>46</v>
       </c>
@@ -4473,8 +4077,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="194"/>
+    <row r="131" spans="1:12">
+      <c r="A131" s="171"/>
       <c r="B131" s="2" t="s">
         <v>45</v>
       </c>
@@ -4497,8 +4101,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="194"/>
+    <row r="132" spans="1:12">
+      <c r="A132" s="171"/>
       <c r="B132" s="2" t="s">
         <v>35</v>
       </c>
@@ -4521,8 +4125,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="195"/>
+    <row r="133" spans="1:12" ht="15" thickBot="1">
+      <c r="A133" s="172"/>
       <c r="B133" s="16" t="s">
         <v>34</v>
       </c>
@@ -4545,33 +4149,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15" thickBot="1">
       <c r="A134" s="25"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="184"/>
-      <c r="B135" s="186"/>
-      <c r="C135" s="184" t="s">
+    <row r="135" spans="1:12">
+      <c r="A135" s="166"/>
+      <c r="B135" s="167"/>
+      <c r="C135" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="D135" s="186"/>
-      <c r="E135" s="186"/>
-      <c r="F135" s="186"/>
-      <c r="G135" s="185"/>
-      <c r="H135" s="186" t="s">
+      <c r="D135" s="167"/>
+      <c r="E135" s="167"/>
+      <c r="F135" s="167"/>
+      <c r="G135" s="170"/>
+      <c r="H135" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="I135" s="186"/>
-      <c r="J135" s="186"/>
-      <c r="K135" s="186"/>
-      <c r="L135" s="185"/>
-    </row>
-    <row r="136" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="200"/>
-      <c r="B136" s="201"/>
+      <c r="I135" s="167"/>
+      <c r="J135" s="167"/>
+      <c r="K135" s="167"/>
+      <c r="L135" s="170"/>
+    </row>
+    <row r="136" spans="1:12" ht="29.4" thickBot="1">
+      <c r="A136" s="173"/>
+      <c r="B136" s="174"/>
       <c r="C136" s="24" t="s">
         <v>44</v>
       </c>
@@ -4603,8 +4207,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="193" t="s">
+    <row r="137" spans="1:12">
+      <c r="A137" s="175" t="s">
         <v>39</v>
       </c>
       <c r="B137" s="28" t="s">
@@ -4641,8 +4245,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="194"/>
+    <row r="138" spans="1:12">
+      <c r="A138" s="171"/>
       <c r="B138" s="2" t="s">
         <v>37</v>
       </c>
@@ -4677,8 +4281,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="194"/>
+    <row r="139" spans="1:12">
+      <c r="A139" s="171"/>
       <c r="B139" s="2" t="s">
         <v>36</v>
       </c>
@@ -4713,8 +4317,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="194"/>
+    <row r="140" spans="1:12">
+      <c r="A140" s="171"/>
       <c r="B140" s="2" t="s">
         <v>35</v>
       </c>
@@ -4749,8 +4353,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="195"/>
+    <row r="141" spans="1:12" ht="15" thickBot="1">
+      <c r="A141" s="172"/>
       <c r="B141" s="16" t="s">
         <v>34</v>
       </c>
@@ -4785,7 +4389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15" thickBot="1">
       <c r="A142" s="25"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
@@ -4793,25 +4397,25 @@
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="184"/>
-      <c r="B143" s="186"/>
-      <c r="C143" s="184" t="s">
+    <row r="143" spans="1:12">
+      <c r="A143" s="166"/>
+      <c r="B143" s="167"/>
+      <c r="C143" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="186"/>
-      <c r="E143" s="186"/>
-      <c r="F143" s="185"/>
-      <c r="G143" s="186" t="s">
+      <c r="D143" s="167"/>
+      <c r="E143" s="167"/>
+      <c r="F143" s="170"/>
+      <c r="G143" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="H143" s="186"/>
-      <c r="I143" s="186"/>
-      <c r="J143" s="185"/>
-    </row>
-    <row r="144" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="200"/>
-      <c r="B144" s="201"/>
+      <c r="H143" s="167"/>
+      <c r="I143" s="167"/>
+      <c r="J143" s="170"/>
+    </row>
+    <row r="144" spans="1:12" ht="29.4" thickBot="1">
+      <c r="A144" s="173"/>
+      <c r="B144" s="174"/>
       <c r="C144" s="24" t="s">
         <v>31</v>
       </c>
@@ -4838,8 +4442,8 @@
       </c>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="194" t="s">
+    <row r="145" spans="1:10">
+      <c r="A145" s="171" t="s">
         <v>27</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4870,8 +4474,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="194"/>
+    <row r="146" spans="1:10">
+      <c r="A146" s="171"/>
       <c r="B146" s="2" t="s">
         <v>20</v>
       </c>
@@ -4900,8 +4504,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="194"/>
+    <row r="147" spans="1:10">
+      <c r="A147" s="171"/>
       <c r="B147" s="2" t="s">
         <v>24</v>
       </c>
@@ -4930,8 +4534,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="194" t="s">
+    <row r="148" spans="1:10">
+      <c r="A148" s="171" t="s">
         <v>23</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4962,8 +4566,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="194"/>
+    <row r="149" spans="1:10">
+      <c r="A149" s="171"/>
       <c r="B149" s="2" t="s">
         <v>21</v>
       </c>
@@ -4992,8 +4596,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="194"/>
+    <row r="150" spans="1:10">
+      <c r="A150" s="171"/>
       <c r="B150" s="2" t="s">
         <v>20</v>
       </c>
@@ -5022,8 +4626,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="195"/>
+    <row r="151" spans="1:10" ht="15" thickBot="1">
+      <c r="A151" s="172"/>
       <c r="B151" s="16" t="s">
         <v>19</v>
       </c>
@@ -5052,18 +4656,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="21">
       <c r="A154" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -5074,7 +4678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="B157" s="1" t="s">
         <v>15</v>
       </c>
@@ -5082,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="B158" s="1" t="s">
         <v>14</v>
       </c>
@@ -5090,7 +4694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="B159" s="1" t="s">
         <v>13</v>
       </c>
@@ -5098,7 +4702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="B160" s="1" t="s">
         <v>12</v>
       </c>
@@ -5106,7 +4710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3">
       <c r="B161" s="1" t="s">
         <v>11</v>
       </c>
@@ -5114,7 +4718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -5122,23 +4726,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" ht="21.6" thickBot="1">
       <c r="A179" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="15.6">
       <c r="B180" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="15" thickBot="1">
       <c r="A181" s="2"/>
       <c r="B181" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="9" t="s">
         <v>6</v>
       </c>
@@ -5146,7 +4750,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="7" t="s">
         <v>5</v>
       </c>
@@ -5154,7 +4758,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="7" t="s">
         <v>4</v>
       </c>
@@ -5162,7 +4766,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="7" t="s">
         <v>3</v>
       </c>
@@ -5170,7 +4774,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="7" t="s">
         <v>2</v>
       </c>
@@ -5178,7 +4782,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="7" t="s">
         <v>1</v>
       </c>
@@ -5186,7 +4790,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="15" thickBot="1">
       <c r="A188" s="5" t="s">
         <v>0</v>
       </c>
@@ -5194,30 +4798,32 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A127:B128"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A135:B136"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="H135:L135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A143:B144"/>
-    <mergeCell ref="C143:F143"/>
-    <mergeCell ref="G143:J143"/>
-    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="E73:H73"/>
     <mergeCell ref="I73:J73"/>
     <mergeCell ref="A129:A133"/>
@@ -5234,103 +4840,100 @@
     <mergeCell ref="I72:J72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="A110:A111"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A127:B128"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A135:B136"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:L135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A143:B144"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="A145:A147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="16384" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="85" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="205" t="s">
+    <row r="1" spans="1:12" s="60" customFormat="1" ht="18">
+      <c r="A1" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="209" t="s">
+      <c r="B1" s="204"/>
+      <c r="C1" s="206" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="210"/>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="207"/>
+      <c r="E1" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="211" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="208" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="213" t="s">
+      <c r="H1" s="209"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="215"/>
-    </row>
-    <row r="2" spans="1:12" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="86" t="s">
+      <c r="K1" s="211"/>
+      <c r="L1" s="212"/>
+    </row>
+    <row r="2" spans="1:12" s="60" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="189"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="184" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="50" t="s">
@@ -5371,9 +4974,9 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
+      <c r="A4" s="186"/>
+      <c r="B4" s="70" t="s">
         <v>146</v>
       </c>
       <c r="C4" s="15">
@@ -5411,45 +5014,45 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
+      <c r="A5" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="98">
+      <c r="C5" s="73">
         <v>1</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="74">
         <v>1</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="75">
         <v>1</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="98">
+      <c r="F5" s="76"/>
+      <c r="G5" s="73">
         <v>1</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="75">
         <v>1</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="98">
+      <c r="I5" s="76"/>
+      <c r="J5" s="73">
         <v>1</v>
       </c>
-      <c r="K5" s="99">
+      <c r="K5" s="74">
         <v>1</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="77" t="s">
         <v>150</v>
       </c>
       <c r="C6" s="19">
@@ -5461,7 +5064,7 @@
       <c r="E6" s="17">
         <v>0</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="78" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="29">
@@ -5470,16 +5073,16 @@
       <c r="H6" s="26">
         <v>0</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="79" t="s">
         <v>151</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="27"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="105" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="185"/>
+      <c r="B7" s="80" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="19">
@@ -5491,7 +5094,7 @@
       <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="81" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="19">
@@ -5500,16 +5103,16 @@
       <c r="H7" s="17">
         <v>0</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="82" t="s">
         <v>153</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="18"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="203"/>
-      <c r="B8" s="105" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="185"/>
+      <c r="B8" s="80" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="19">
@@ -5521,7 +5124,7 @@
       <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="81" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="19">
@@ -5530,20 +5133,20 @@
       <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="82" t="s">
         <v>155</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="18"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
-      <c r="B9" s="108"/>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="A9" s="186"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="32"/>
       <c r="D9" s="16"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="84" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="15">
@@ -5552,18 +5155,18 @@
       <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="85" t="s">
         <v>156</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="14"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="202" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="77" t="s">
         <v>158</v>
       </c>
       <c r="C10" s="29">
@@ -5575,7 +5178,7 @@
       <c r="E10" s="26">
         <v>0</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="81" t="s">
         <v>159</v>
       </c>
       <c r="G10" s="29">
@@ -5589,9 +5192,9 @@
       <c r="K10" s="27"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="203"/>
-      <c r="B11" s="105" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="185"/>
+      <c r="B11" s="80" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="19">
@@ -5603,7 +5206,7 @@
       <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="81" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="19">
@@ -5617,9 +5220,9 @@
       <c r="K11" s="18"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
-      <c r="B12" s="105" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="185"/>
+      <c r="B12" s="80" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="19">
@@ -5631,7 +5234,7 @@
       <c r="E12" s="17">
         <v>0</v>
       </c>
-      <c r="F12" s="111"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="35"/>
       <c r="H12" s="33"/>
       <c r="I12" s="2"/>
@@ -5639,9 +5242,9 @@
       <c r="K12" s="2"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="204"/>
-      <c r="B13" s="108" t="s">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
+      <c r="A13" s="186"/>
+      <c r="B13" s="83" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="15">
@@ -5655,7 +5258,7 @@
       <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="F13" s="109"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="32"/>
       <c r="H13" s="30"/>
       <c r="I13" s="16"/>
@@ -5663,42 +5266,42 @@
       <c r="K13" s="16"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="205" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="88">
         <v>7.5</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="89">
         <v>86.57</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="90">
         <v>16.5</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="116"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="117"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
-      <c r="B15" s="118" t="s">
+      <c r="L14" s="92"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="188"/>
+      <c r="B15" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="94">
         <v>0.34347826086956523</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="95">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E15" s="121">
+      <c r="E15" s="96">
         <v>0.31847714049481757</v>
       </c>
       <c r="F15" s="2"/>
@@ -5709,20 +5312,20 @@
       <c r="K15" s="2"/>
       <c r="L15" s="33"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="207"/>
-      <c r="B16" s="122" t="s">
+    <row r="16" spans="1:12" ht="15" thickBot="1">
+      <c r="A16" s="189"/>
+      <c r="B16" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="123">
+      <c r="C16" s="98">
         <f>C14*C15</f>
         <v>2.5760869565217392</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="99">
         <f t="shared" ref="D16:E16" si="1">D14*D15</f>
         <v>6.8390299999999993</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="100">
         <f t="shared" si="1"/>
         <v>5.2548728181644897</v>
       </c>
@@ -5734,7 +5337,7 @@
       <c r="K16" s="16"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5748,7 +5351,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5762,7 +5365,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5776,431 +5379,431 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="219" t="s">
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="224"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="195"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="220"/>
-      <c r="B21" s="225" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="191"/>
+      <c r="B21" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="226"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="231" t="s">
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="202" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="216" t="s">
+      <c r="H21" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="I21" s="216" t="s">
+      <c r="I21" s="182" t="s">
         <v>170</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="217"/>
+    <row r="22" spans="1:12" ht="15.6" customHeight="1">
+      <c r="A22" s="192"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="126" t="s">
+    <row r="23" spans="1:12" ht="15.6">
+      <c r="A23" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="130" t="s">
+      <c r="F23" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="I23" s="130"/>
+      <c r="I23" s="105"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="132" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="108">
         <f>C3*CS_Data!B46+C4*CS_Data!B47</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="109">
         <f>C3*CS_Data!D46+CS_France!C4*CS_Data!D47</f>
         <v>0.72666666666666668</v>
       </c>
-      <c r="D24" s="134">
+      <c r="D24" s="109">
         <f>C3*(CS_France!C6*CS_Data!H46+CS_France!C8*CS_Data!J46)+CS_France!C4*(CS_France!C6*CS_Data!H47+CS_France!C8*CS_Data!J47)</f>
         <v>1.0533333333333335</v>
       </c>
-      <c r="E24" s="135">
+      <c r="E24" s="110">
         <f>C3*(C12*CS_Data!M46+CS_France!C13*CS_Data!N46)+CS_France!C4*(CS_France!C12*CS_Data!M47+CS_France!C13*CS_Data!N47)</f>
         <v>1.1856666666666669</v>
       </c>
-      <c r="F24" s="136">
+      <c r="F24" s="111">
         <f t="shared" ref="F24:F32" si="2">B24*C24*D24*E24</f>
         <v>64.737540523456815</v>
       </c>
-      <c r="G24" s="137">
+      <c r="G24" s="112">
         <v>0</v>
       </c>
-      <c r="H24" s="136">
+      <c r="H24" s="111">
         <f>F24+G24</f>
         <v>64.737540523456815</v>
       </c>
-      <c r="I24" s="136">
+      <c r="I24" s="111">
         <v>0</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="139">
+      <c r="B25" s="114">
         <f>C3*CS_Data!B46+C4*CS_Data!B47</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="115">
         <f>C3*CS_Data!D46+CS_France!C4*CS_Data!D47</f>
         <v>0.72666666666666668</v>
       </c>
-      <c r="D25" s="140">
+      <c r="D25" s="115">
         <f>C3*(CS_France!C6*CS_Data!H46+CS_France!C8*CS_Data!J46)+CS_France!C4*(CS_France!C6*CS_Data!H47+CS_France!C8*CS_Data!J47)</f>
         <v>1.0533333333333335</v>
       </c>
-      <c r="E25" s="141">
+      <c r="E25" s="116">
         <f>C3*(C12*CS_Data!M46+CS_France!C13*CS_Data!N46)+CS_France!C4*(CS_France!C12*CS_Data!M47+CS_France!C13*CS_Data!N47)</f>
         <v>1.1856666666666669</v>
       </c>
-      <c r="F25" s="142">
+      <c r="F25" s="117">
         <f t="shared" si="2"/>
         <v>64.737540523456815</v>
       </c>
-      <c r="G25" s="143">
+      <c r="G25" s="118">
         <v>0</v>
       </c>
-      <c r="H25" s="142">
+      <c r="H25" s="117">
         <f t="shared" ref="H25:H26" si="3">F25+G25</f>
         <v>64.737540523456815</v>
       </c>
-      <c r="I25" s="142">
+      <c r="I25" s="117">
         <v>0</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="144" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="145">
+      <c r="B26" s="120">
         <f>C3*CS_Data!B46+C4*CS_Data!B47</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C26" s="146">
+      <c r="C26" s="121">
         <f>E3*CS_Data!F46+CS_France!E4*CS_Data!F47</f>
         <v>1</v>
       </c>
-      <c r="D26" s="146">
+      <c r="D26" s="121">
         <f>E3*(E6*CS_Data!H46+CS_France!E8*CS_Data!J46)+CS_France!E4*(E6*CS_Data!H47+CS_France!E8*CS_Data!J47)</f>
         <v>1.1333333333333333</v>
       </c>
-      <c r="E26" s="147">
+      <c r="E26" s="122">
         <f>E3*E11*CS_Data!L46+CS_France!E4*CS_Data!L47</f>
         <v>1</v>
       </c>
-      <c r="F26" s="148">
+      <c r="F26" s="123">
         <f t="shared" si="2"/>
         <v>80.844444444444449</v>
       </c>
-      <c r="G26" s="149">
+      <c r="G26" s="124">
         <f>CS_Data!B112</f>
         <v>43.2</v>
       </c>
-      <c r="H26" s="148">
+      <c r="H26" s="123">
         <f t="shared" si="3"/>
         <v>124.04444444444445</v>
       </c>
-      <c r="I26" s="148">
+      <c r="I26" s="123">
         <v>0</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="150" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="151">
+      <c r="B27" s="126">
         <f>C3*CS_Data!B46+C4*CS_Data!B47</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C27" s="152">
+      <c r="C27" s="127">
         <f>E3*CS_Data!F46+CS_France!E4*CS_Data!F47</f>
         <v>1</v>
       </c>
-      <c r="D27" s="152">
+      <c r="D27" s="127">
         <f>E3*(E6*CS_Data!H46+CS_France!E8*CS_Data!J46)+CS_France!E4*(E6*CS_Data!H47+CS_France!E8*CS_Data!J47)</f>
         <v>1.1333333333333333</v>
       </c>
-      <c r="E27" s="153">
+      <c r="E27" s="128">
         <f>E3*E11*CS_Data!L46+CS_France!E4*CS_Data!L47</f>
         <v>1</v>
       </c>
-      <c r="F27" s="154">
+      <c r="F27" s="129">
         <f t="shared" si="2"/>
         <v>80.844444444444449</v>
       </c>
-      <c r="G27" s="155">
+      <c r="G27" s="130">
         <f>CS_Data!D119</f>
         <v>10</v>
       </c>
-      <c r="H27" s="154">
+      <c r="H27" s="129">
         <f>F27+G27</f>
         <v>90.844444444444449</v>
       </c>
-      <c r="I27" s="154">
+      <c r="I27" s="129">
         <v>0</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="156" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="157">
+      <c r="B28" s="132">
         <f>G3*CS_Data!B80+CS_France!G4*CS_Data!B81</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C28" s="158">
+      <c r="C28" s="133">
         <f>G3*CS_Data!D80+CS_France!G4*CS_Data!D81</f>
         <v>1</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="133">
         <f>G3*CS_Data!E80+CS_France!G4*CS_Data!E81</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="E28" s="159">
+      <c r="E28" s="134">
         <f>H3*G11*CS_Data!J80+CS_France!H4*G11*CS_Data!J81</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="F28" s="160">
+      <c r="F28" s="135">
         <f t="shared" si="2"/>
         <v>90.265200000000021</v>
       </c>
-      <c r="G28" s="161">
+      <c r="G28" s="136">
         <f>CS_France!G3*CS_Data!B185+CS_France!G4*CS_Data!B186</f>
         <v>5.5666666666666673</v>
       </c>
-      <c r="H28" s="160">
+      <c r="H28" s="135">
         <f>F28+G28</f>
         <v>95.831866666666684</v>
       </c>
-      <c r="I28" s="160">
+      <c r="I28" s="135">
         <v>0</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="162" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="163">
+      <c r="B29" s="138">
         <f>G3*CS_Data!B80+CS_France!G4*CS_Data!B81</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C29" s="164">
+      <c r="C29" s="139">
         <f>G3*CS_Data!D80+CS_France!G4*CS_Data!D81</f>
         <v>1</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="139">
         <f>H3*CS_Data!H80+CS_France!H4*CS_Data!H81</f>
         <v>0.7</v>
       </c>
-      <c r="E29" s="165">
+      <c r="E29" s="140">
         <f>H3*H10*CS_Data!I80+CS_France!H4*H10*CS_Data!I81</f>
         <v>1</v>
       </c>
-      <c r="F29" s="166">
+      <c r="F29" s="141">
         <f t="shared" si="2"/>
         <v>49.933333333333337</v>
       </c>
-      <c r="G29" s="167">
+      <c r="G29" s="142">
         <f>CS_France!G3*CS_Data!B185+CS_France!G4*CS_Data!B186</f>
         <v>5.5666666666666673</v>
       </c>
-      <c r="H29" s="166">
+      <c r="H29" s="141">
         <f>F29+G29</f>
         <v>55.500000000000007</v>
       </c>
-      <c r="I29" s="166">
+      <c r="I29" s="141">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="168" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="169">
+      <c r="B30" s="144">
         <f>J3*CS_Data!B63+CS_France!J4*CS_Data!B64</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C30" s="170">
+      <c r="C30" s="145">
         <v>1</v>
       </c>
-      <c r="D30" s="170">
+      <c r="D30" s="145">
         <v>1</v>
       </c>
-      <c r="E30" s="171">
+      <c r="E30" s="146">
         <v>1</v>
       </c>
-      <c r="F30" s="172">
+      <c r="F30" s="147">
         <f t="shared" si="2"/>
         <v>71.333333333333343</v>
       </c>
-      <c r="G30" s="173">
+      <c r="G30" s="148">
         <f>CS_Data!H137</f>
         <v>84</v>
       </c>
-      <c r="H30" s="174">
+      <c r="H30" s="149">
         <f>G30+F30</f>
         <v>155.33333333333334</v>
       </c>
-      <c r="I30" s="174">
+      <c r="I30" s="149">
         <v>3.5</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="168" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="169">
+      <c r="B31" s="144">
         <f>J3*CS_Data!B63+CS_France!J4*CS_Data!B64</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C31" s="170">
+      <c r="C31" s="145">
         <v>1</v>
       </c>
-      <c r="D31" s="170">
+      <c r="D31" s="145">
         <v>1</v>
       </c>
-      <c r="E31" s="171">
+      <c r="E31" s="146">
         <v>1</v>
       </c>
-      <c r="F31" s="172">
+      <c r="F31" s="147">
         <f t="shared" si="2"/>
         <v>71.333333333333343</v>
       </c>
-      <c r="G31" s="173">
+      <c r="G31" s="148">
         <f>CS_Data!C157</f>
         <v>9</v>
       </c>
-      <c r="H31" s="174">
+      <c r="H31" s="149">
         <f>G31+F31</f>
         <v>80.333333333333343</v>
       </c>
-      <c r="I31" s="174">
+      <c r="I31" s="149">
         <v>3.5</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="175" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="150" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="176">
+      <c r="B32" s="151">
         <f>J3*CS_Data!B63+CS_France!J4*CS_Data!B64</f>
         <v>71.333333333333343</v>
       </c>
-      <c r="C32" s="177">
+      <c r="C32" s="152">
         <v>1</v>
       </c>
-      <c r="D32" s="177">
+      <c r="D32" s="152">
         <v>1</v>
       </c>
-      <c r="E32" s="178">
+      <c r="E32" s="153">
         <v>1</v>
       </c>
-      <c r="F32" s="179">
+      <c r="F32" s="154">
         <f t="shared" si="2"/>
         <v>71.333333333333343</v>
       </c>
-      <c r="G32" s="180">
+      <c r="G32" s="155">
         <f>CS_Data!C156</f>
         <v>60</v>
       </c>
-      <c r="H32" s="181">
+      <c r="H32" s="156">
         <f>F32+G32</f>
         <v>131.33333333333334</v>
       </c>
-      <c r="I32" s="181">
+      <c r="I32" s="156">
         <v>3.5</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6214,7 +5817,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6228,7 +5831,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6242,7 +5845,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6256,7 +5859,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" ht="36.6">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6268,9 +5871,9 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="182"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="157"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6284,7 +5887,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6298,7 +5901,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6312,7 +5915,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6326,7 +5929,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6340,7 +5943,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6354,7 +5957,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6368,7 +5971,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6382,7 +5985,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6396,7 +5999,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6410,7 +6013,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6424,7 +6027,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6438,7 +6041,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6452,7 +6055,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6466,7 +6069,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6480,7 +6083,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6494,7 +6097,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6508,7 +6111,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6522,7 +6125,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6536,7 +6139,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6550,7 +6153,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6564,7 +6167,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6578,7 +6181,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6592,7 +6195,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6606,7 +6209,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6620,7 +6223,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6634,7 +6237,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6648,7 +6251,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6662,7 +6265,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6676,7 +6279,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6690,7 +6293,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6704,7 +6307,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6718,7 +6321,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6732,7 +6335,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6746,7 +6349,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6760,7 +6363,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6774,7 +6377,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6788,7 +6391,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6802,7 +6405,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6816,7 +6419,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6830,7 +6433,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6844,7 +6447,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6858,7 +6461,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6872,7 +6475,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6886,7 +6489,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6900,7 +6503,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6914,7 +6517,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6928,7 +6531,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6942,7 +6545,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6956,7 +6559,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6970,7 +6573,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6984,7 +6587,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6998,7 +6601,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7012,7 +6615,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7026,7 +6629,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7040,7 +6643,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7054,7 +6657,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7068,7 +6671,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7082,7 +6685,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7096,7 +6699,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7110,7 +6713,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7124,7 +6727,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7138,7 +6741,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7152,7 +6755,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7166,7 +6769,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7180,7 +6783,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7194,7 +6797,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7208,7 +6811,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7222,7 +6825,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7236,7 +6839,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7250,7 +6853,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7264,7 +6867,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7278,7 +6881,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7292,7 +6895,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7306,7 +6909,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7320,7 +6923,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7334,7 +6937,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7348,7 +6951,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7362,7 +6965,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7376,7 +6979,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7390,7 +6993,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7404,7 +7007,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7418,7 +7021,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7432,7 +7035,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7446,7 +7049,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7460,7 +7063,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7474,7 +7077,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7488,7 +7091,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7502,7 +7105,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7516,7 +7119,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7530,7 +7133,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7544,7 +7147,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7558,7 +7161,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7572,7 +7175,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7586,7 +7189,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7600,7 +7203,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7614,7 +7217,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7628,7 +7231,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7642,7 +7245,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7656,7 +7259,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7670,7 +7273,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7684,7 +7287,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7698,7 +7301,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7712,7 +7315,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7726,7 +7329,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7740,7 +7343,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7754,7 +7357,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7768,7 +7371,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7782,7 +7385,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7796,7 +7399,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7810,7 +7413,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7824,7 +7427,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7838,7 +7441,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7852,7 +7455,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7866,7 +7469,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7880,7 +7483,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7894,7 +7497,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7908,7 +7511,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7922,7 +7525,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7936,7 +7539,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7950,7 +7553,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7964,7 +7567,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7978,7 +7581,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7992,7 +7595,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8006,7 +7609,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8020,7 +7623,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8034,7 +7637,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8048,7 +7651,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8062,7 +7665,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8076,7 +7679,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8090,7 +7693,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8104,7 +7707,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8118,7 +7721,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8132,7 +7735,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8146,7 +7749,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8160,7 +7763,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8174,7 +7777,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8188,7 +7791,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8202,7 +7805,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8216,7 +7819,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8230,7 +7833,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8244,7 +7847,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8258,7 +7861,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8272,7 +7875,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8286,7 +7889,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8300,7 +7903,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8314,7 +7917,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8328,7 +7931,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8342,7 +7945,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8356,7 +7959,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8370,7 +7973,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8384,7 +7987,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8398,7 +8001,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8412,7 +8015,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8426,7 +8029,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8440,7 +8043,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8454,7 +8057,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8468,7 +8071,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8482,7 +8085,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8496,7 +8099,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8510,7 +8113,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8524,7 +8127,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8538,7 +8141,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8552,7 +8155,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8566,7 +8169,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8580,7 +8183,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8594,7 +8197,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8608,7 +8211,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8622,7 +8225,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8636,7 +8239,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8650,7 +8253,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8664,7 +8267,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8678,7 +8281,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8692,7 +8295,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8706,7 +8309,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8720,7 +8323,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8734,7 +8337,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8748,7 +8351,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8762,7 +8365,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8776,7 +8379,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8790,7 +8393,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8804,7 +8407,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8818,7 +8421,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8832,7 +8435,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8846,7 +8449,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8860,7 +8463,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8874,7 +8477,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8888,7 +8491,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8902,7 +8505,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8916,7 +8519,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8930,7 +8533,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8944,7 +8547,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8958,7 +8561,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8972,7 +8575,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8986,7 +8589,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9000,7 +8603,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9014,7 +8617,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9028,7 +8631,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9042,7 +8645,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9056,7 +8659,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9070,7 +8673,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9084,7 +8687,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9098,7 +8701,7 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9112,7 +8715,7 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9126,7 +8729,7 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9140,7 +8743,7 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9154,7 +8757,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9168,7 +8771,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9182,7 +8785,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9196,7 +8799,7 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9210,7 +8813,7 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9224,7 +8827,7 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9238,7 +8841,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9252,7 +8855,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9266,7 +8869,7 @@
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9280,7 +8883,7 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9294,7 +8897,7 @@
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9308,7 +8911,7 @@
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9322,7 +8925,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9336,7 +8939,7 @@
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9350,7 +8953,7 @@
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9364,7 +8967,7 @@
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9378,7 +8981,7 @@
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -9392,7 +8995,7 @@
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9406,7 +9009,7 @@
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9420,7 +9023,7 @@
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9434,7 +9037,7 @@
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9448,7 +9051,7 @@
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9462,7 +9065,7 @@
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9476,7 +9079,7 @@
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9490,7 +9093,7 @@
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9504,7 +9107,7 @@
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9518,7 +9121,7 @@
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9532,7 +9135,7 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9546,7 +9149,7 @@
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9560,7 +9163,7 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9574,7 +9177,7 @@
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9588,7 +9191,7 @@
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9602,7 +9205,7 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9616,7 +9219,7 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9630,7 +9233,7 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9644,7 +9247,7 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9658,7 +9261,7 @@
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9672,7 +9275,7 @@
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9686,7 +9289,7 @@
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9700,7 +9303,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9714,7 +9317,7 @@
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9728,7 +9331,7 @@
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9742,7 +9345,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9756,7 +9359,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9770,7 +9373,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9784,7 +9387,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9798,7 +9401,7 @@
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9812,7 +9415,7 @@
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9826,7 +9429,7 @@
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9840,7 +9443,7 @@
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9854,7 +9457,7 @@
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9868,7 +9471,7 @@
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9882,7 +9485,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9896,7 +9499,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9910,7 +9513,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9924,7 +9527,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9938,7 +9541,7 @@
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9952,7 +9555,7 @@
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9966,7 +9569,7 @@
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9980,7 +9583,7 @@
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9994,7 +9597,7 @@
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10008,7 +9611,7 @@
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10022,7 +9625,7 @@
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10036,7 +9639,7 @@
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10050,7 +9653,7 @@
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10064,7 +9667,7 @@
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="D309" s="1"/>
@@ -10079,6 +9682,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -10087,724 +9696,725 @@
     <mergeCell ref="B21:F22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.4">
+      <c r="A1" s="219" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="219"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="B3" s="225" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="222" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="224"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="173" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="174"/>
+      <c r="S4" s="220"/>
+    </row>
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="159" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="162">
+        <v>17.34</v>
+      </c>
+      <c r="C6" s="163">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="162">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="163">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="162">
+        <v>0.52</v>
+      </c>
+      <c r="I6" s="163">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="162">
+        <v>29.94</v>
+      </c>
+      <c r="L6" s="163">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="N6" s="162">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="163">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="162">
+        <v>0.41</v>
+      </c>
+      <c r="R6" s="163">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="214"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="216" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="217"/>
+      <c r="J9" s="218"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="234" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="236" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="236" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="237">
+        <v>17.34</v>
+      </c>
+      <c r="C11" s="238">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11" s="239">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="240">
+        <f>E6+H6+K6+N6+Q6</f>
+        <v>31.060000000000002</v>
+      </c>
+      <c r="F11" s="238">
+        <f t="shared" ref="F11:G11" si="0">F6+I6+L6+O6+R6</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="241">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="H11" s="240">
+        <f>+B11+E11</f>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="I11" s="238">
+        <f t="shared" ref="I11:J11" si="1">+C11+F11</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11" s="241">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="221" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="247" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="248">
+        <f>B11*10^(-6)/$C$15</f>
+        <v>0.46313164556962028</v>
+      </c>
+      <c r="C12" s="248">
+        <f t="shared" ref="C12:J12" si="2">C11*10^(-6)/$C$15</f>
+        <v>1.8696202531645572E-3</v>
+      </c>
+      <c r="D12" s="248">
+        <f t="shared" si="2"/>
+        <v>8.0126582278481013E-4</v>
+      </c>
+      <c r="E12" s="248">
+        <f t="shared" si="2"/>
+        <v>0.8295772151898736</v>
+      </c>
+      <c r="F12" s="248">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="249">
+        <f t="shared" si="2"/>
+        <v>2.4037974683544304E-3</v>
+      </c>
+      <c r="H12" s="253">
+        <f t="shared" si="2"/>
+        <v>1.2927088607594939</v>
+      </c>
+      <c r="I12" s="254">
+        <f t="shared" si="2"/>
+        <v>1.8696202531645572E-3</v>
+      </c>
+      <c r="J12" s="255">
+        <f t="shared" si="2"/>
+        <v>3.2050632911392405E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
+      <c r="A15" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="55">
+        <v>3.7440758293838861E-5</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B3:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>186</v>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="219" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="219"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="B3" s="225" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="222" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="223"/>
+      <c r="R3" s="223"/>
+      <c r="S3" s="224"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="168" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="169"/>
+      <c r="S4" s="176"/>
+    </row>
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="159" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="162">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="163">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="162">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="163">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="162">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="163">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="162">
+        <f>3.4+1.5</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L6" s="163">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="162">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="163">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="162">
+        <v>0.4</v>
+      </c>
+      <c r="R6" s="163">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="214"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="216" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="217"/>
+      <c r="J9" s="218"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="232" t="str">
+        <f t="array" ref="B10:D11">B5:D6</f>
+        <v>CO2</v>
+      </c>
+      <c r="C10" s="233" t="str">
+        <v>N2O</v>
+      </c>
+      <c r="D10" s="234" t="str">
+        <v>CH4</v>
+      </c>
+      <c r="E10" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="236" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="235" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="236" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="242">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="243">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="244">
+        <v>0</v>
+      </c>
+      <c r="E11" s="245">
+        <f>E6+H6+K6+N6+Q6</f>
+        <v>7.7</v>
+      </c>
+      <c r="F11" s="243">
+        <f t="shared" ref="F11:G11" si="0">F6+I6+L6+O6+R6</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="246">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="245">
+        <f>+B11+E11</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I11" s="243">
+        <f t="shared" ref="I11:J11" si="1">+C11+F11</f>
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="246">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="231" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="247" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="248">
+        <f>B11*10^(-6)/$C$15</f>
+        <v>4.0063291139240509E-2</v>
+      </c>
+      <c r="C12" s="248">
+        <f t="shared" ref="C12:J12" si="2">C11*10^(-6)/$C$15</f>
+        <v>2.6708860759493673E-4</v>
+      </c>
+      <c r="D12" s="248">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="248">
+        <f t="shared" si="2"/>
+        <v>0.20565822784810125</v>
+      </c>
+      <c r="F12" s="248">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="249">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="250">
+        <f t="shared" si="2"/>
+        <v>0.24572151898734174</v>
+      </c>
+      <c r="I12" s="251">
+        <f t="shared" si="2"/>
+        <v>2.6708860759493673E-4</v>
+      </c>
+      <c r="J12" s="252">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="57">
+        <f>H11+I11*289</f>
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
+      <c r="A15" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="55">
+        <v>3.7440758293838861E-5</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I14*10^(-6)/$C$15</f>
+        <v>0.32291012658227847</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:S3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E2" s="239" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="239" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="239"/>
-      <c r="S3" s="239"/>
-    </row>
-    <row r="4" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53">
-        <v>17.34</v>
-      </c>
-      <c r="C5" s="53">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0.09</v>
-      </c>
-      <c r="F5" s="53">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53">
-        <v>0.52</v>
-      </c>
-      <c r="I5" s="53">
-        <v>0</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53">
-        <v>29.94</v>
-      </c>
-      <c r="L5" s="53">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53">
-        <v>0.09</v>
-      </c>
-      <c r="N5" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="53">
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="53">
-        <v>0.41</v>
-      </c>
-      <c r="R5" s="53">
-        <v>0</v>
-      </c>
-      <c r="S5" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="233" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="236" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="61">
-        <v>17.34</v>
-      </c>
-      <c r="C10" s="62">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D10" s="63">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="64">
-        <f>E5+H5+K5+N5+Q5</f>
-        <v>31.060000000000002</v>
-      </c>
-      <c r="F10" s="62">
-        <f t="shared" ref="F10:G10" si="0">F5+I5+L5+O5+R5</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="65">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="H10" s="64">
-        <f>+B10+E10</f>
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I10" s="62">
-        <f t="shared" ref="I10:J10" si="1">+C10+F10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J10" s="65">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="72" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="67">
-        <f>B10*10^(-6)/$C$14</f>
-        <v>0.46313164556962028</v>
-      </c>
-      <c r="C11" s="67">
-        <f t="shared" ref="C11:J11" si="2">C10*10^(-6)/$C$14</f>
-        <v>1.8696202531645572E-3</v>
-      </c>
-      <c r="D11" s="67">
-        <f t="shared" si="2"/>
-        <v>8.0126582278481013E-4</v>
-      </c>
-      <c r="E11" s="67">
-        <f t="shared" si="2"/>
-        <v>0.8295772151898736</v>
-      </c>
-      <c r="F11" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="68">
-        <f t="shared" si="2"/>
-        <v>2.4037974683544304E-3</v>
-      </c>
-      <c r="H11" s="69">
-        <f t="shared" si="2"/>
-        <v>1.2927088607594939</v>
-      </c>
-      <c r="I11" s="70">
-        <f t="shared" si="2"/>
-        <v>1.8696202531645572E-3</v>
-      </c>
-      <c r="J11" s="71">
-        <f t="shared" si="2"/>
-        <v>3.2050632911392405E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="75">
-        <v>3.7440758293838861E-5</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="239" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="239"/>
-      <c r="S3" s="239"/>
-    </row>
-    <row r="4" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="53">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="53">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53">
-        <v>1.2</v>
-      </c>
-      <c r="I5" s="53">
-        <v>0</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53">
-        <f>3.4+1.5</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L5" s="53">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53">
-        <v>0</v>
-      </c>
-      <c r="N5" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="O5" s="53">
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="53">
-        <v>0.4</v>
-      </c>
-      <c r="R5" s="53">
-        <v>0</v>
-      </c>
-      <c r="S5" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="233" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="236" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="61" t="str">
-        <f t="array" ref="B9:D10">B4:D5</f>
-        <v>CO2</v>
-      </c>
-      <c r="C9" s="62" t="str">
-        <v>N2O</v>
-      </c>
-      <c r="D9" s="63" t="str">
-        <v>CH4</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="61">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="62">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="63">
-        <v>0</v>
-      </c>
-      <c r="E10" s="64">
-        <f>E5+H5+K5+N5+Q5</f>
-        <v>7.7</v>
-      </c>
-      <c r="F10" s="62">
-        <f t="shared" ref="F10:G10" si="0">F5+I5+L5+O5+R5</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="64">
-        <f>+B10+E10</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I10" s="62">
-        <f t="shared" ref="I10:J10" si="1">+C10+F10</f>
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="80" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="67">
-        <f>B10*10^(-6)/$C$14</f>
-        <v>4.0063291139240509E-2</v>
-      </c>
-      <c r="C11" s="67">
-        <f t="shared" ref="C11:J11" si="2">C10*10^(-6)/$C$14</f>
-        <v>2.6708860759493673E-4</v>
-      </c>
-      <c r="D11" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="67">
-        <f t="shared" si="2"/>
-        <v>0.20565822784810125</v>
-      </c>
-      <c r="F11" s="67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="77">
-        <f t="shared" si="2"/>
-        <v>0.24572151898734174</v>
-      </c>
-      <c r="I11" s="78">
-        <f t="shared" si="2"/>
-        <v>2.6708860759493673E-4</v>
-      </c>
-      <c r="J11" s="79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="82">
-        <f>H10+I10*289</f>
-        <v>12.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="75">
-        <v>3.7440758293838861E-5</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14">
-        <f>I13*10^(-6)/$C$14</f>
-        <v>0.32291012658227847</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>